--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="98">
   <si>
     <t>Service</t>
   </si>
@@ -113,45 +113,6 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>10059598</t>
-  </si>
-  <si>
-    <t>10059600</t>
-  </si>
-  <si>
-    <t>10059603</t>
-  </si>
-  <si>
-    <t>10059610</t>
-  </si>
-  <si>
-    <t>10059622</t>
-  </si>
-  <si>
-    <t>10059630</t>
-  </si>
-  <si>
-    <t>10059858</t>
-  </si>
-  <si>
-    <t>10059863</t>
-  </si>
-  <si>
-    <t>10059864</t>
-  </si>
-  <si>
-    <t>10059887</t>
-  </si>
-  <si>
-    <t>10059897</t>
-  </si>
-  <si>
-    <t>794641595264</t>
-  </si>
-  <si>
-    <t>10059903</t>
-  </si>
-  <si>
     <t>NA Process Result</t>
   </si>
   <si>
@@ -161,19 +122,264 @@
     <t>NA Fail Log</t>
   </si>
   <si>
-    <t>10145937</t>
-  </si>
-  <si>
-    <t>10146059</t>
-  </si>
-  <si>
     <t>10146166</t>
   </si>
   <si>
-    <t>10146280</t>
-  </si>
-  <si>
-    <t>10146434</t>
+    <t>10165094</t>
+  </si>
+  <si>
+    <t>10165106</t>
+  </si>
+  <si>
+    <t>10165179</t>
+  </si>
+  <si>
+    <t>10165231</t>
+  </si>
+  <si>
+    <t>10165275</t>
+  </si>
+  <si>
+    <t>10165292</t>
+  </si>
+  <si>
+    <t>10165324</t>
+  </si>
+  <si>
+    <t>10165370</t>
+  </si>
+  <si>
+    <t>10165451</t>
+  </si>
+  <si>
+    <t>794643740667</t>
+  </si>
+  <si>
+    <t>10165558</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10167505</t>
+  </si>
+  <si>
+    <t>10167521</t>
+  </si>
+  <si>
+    <t>RTE</t>
+  </si>
+  <si>
+    <t>Get TrackingNo</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>10167752</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.id: RouteWorkFlow (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60048}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:60048/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 75ad5ae127e6f8d1018b890fd3b2865b</t>
+  </si>
+  <si>
+    <t>10167931</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.id: RouteWorkFlow (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:54105}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:54105/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4f615150c84dd69e2a72ce634aec31bf</t>
+  </si>
+  <si>
+    <t>10169469</t>
+  </si>
+  <si>
+    <t>10169480</t>
+  </si>
+  <si>
+    <t>10169553</t>
+  </si>
+  <si>
+    <t>10169582</t>
+  </si>
+  <si>
+    <t>10169611</t>
+  </si>
+  <si>
+    <t>10169644</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=114.0.5735.199)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [65786b9df6723dd95dec9e3354ee07c7, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51826}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:51826/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 65786b9df6723dd95dec9e3354ee07c7</t>
+  </si>
+  <si>
+    <t>10169669</t>
+  </si>
+  <si>
+    <t>10169679</t>
+  </si>
+  <si>
+    <t>10169716</t>
+  </si>
+  <si>
+    <t>10169727</t>
+  </si>
+  <si>
+    <t>10169809</t>
+  </si>
+  <si>
+    <t>10169870</t>
+  </si>
+  <si>
+    <t>script timeout
+  (Session info: headless chrome=114.0.5735.199)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [65786b9df6723dd95dec9e3354ee07c7, executeScript {script=arguments[0].click();, args=[{element-6066-11e4-a52e-4f735466cecf=444C0BF40FDC551C202A0DD8D6DFE972_element_1042}]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51826}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:51826/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 65786b9df6723dd95dec9e3354ee07c7</t>
+  </si>
+  <si>
+    <t>10169918</t>
+  </si>
+  <si>
+    <t>10169948</t>
+  </si>
+  <si>
+    <t>794644248189</t>
+  </si>
+  <si>
+    <t>10170039</t>
+  </si>
+  <si>
+    <t>10174207</t>
+  </si>
+  <si>
+    <t>10174257</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.P3P.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>10174390</t>
+  </si>
+  <si>
+    <t>10174439</t>
+  </si>
+  <si>
+    <t>10174489</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=114.0.5735.199)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b17ac36a00411dcede58a1f10be27993, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56311}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:56311/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b17ac36a00411dcede58a1f10be27993</t>
+  </si>
+  <si>
+    <t>10174515</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.TCAcknowledge.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.isDisplayed()" because "element" is null</t>
+  </si>
+  <si>
+    <t>10174649</t>
+  </si>
+  <si>
+    <t>10174777</t>
+  </si>
+  <si>
+    <t>10174796</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=114.0.5735.199)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [7428a400698fe37c459eee43f786dfb6, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62978}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:62978/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7428a400698fe37c459eee43f786dfb6</t>
+  </si>
+  <si>
+    <t>10174856</t>
+  </si>
+  <si>
+    <t>10174891</t>
+  </si>
+  <si>
+    <t>10174957</t>
+  </si>
+  <si>
+    <t>10175013</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.NATenderTo3P.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=114.0.5735.199)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [715f3450daaf750f829090189e9d3516, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:49479}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49479/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 715f3450daaf750f829090189e9d3516</t>
+  </si>
+  <si>
+    <t>10175322</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 100 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50641}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50641/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 920cc76f107dfdadf8beddef7e3124ef</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=114.0.5735.199)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [920cc76f107dfdadf8beddef7e3124ef, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50641}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50641/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 920cc76f107dfdadf8beddef7e3124ef</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of element located by By.id: a_tools (tried for 30 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of element located by By.id: a_operations (tried for 50 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>135805790</t>
   </si>
 </sst>
 </file>
@@ -251,13 +457,13 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -561,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +780,7 @@
     <col min="3" max="3" customWidth="true" width="19.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="7" width="40.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="40.140625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="22.5703125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
@@ -593,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -611,15 +817,21 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -627,15 +839,21 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -643,15 +861,21 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -659,15 +883,21 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -675,263 +905,463 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
+      <c r="C7" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
+      <c r="C9" t="s">
+        <v>87</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
+      <c r="C10" t="s">
+        <v>88</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
+      <c r="C11" t="s">
+        <v>92</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
+      <c r="C12" t="s">
+        <v>68</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
+      <c r="C13" t="s">
+        <v>69</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
+      <c r="C14" t="s">
+        <v>71</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
+      <c r="C20" t="s">
+        <v>70</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">

--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="126">
   <si>
     <t>Service</t>
   </si>
@@ -380,6 +380,136 @@
   </si>
   <si>
     <t>135805790</t>
+  </si>
+  <si>
+    <t>10177090</t>
+  </si>
+  <si>
+    <t>10177120</t>
+  </si>
+  <si>
+    <t>10177189</t>
+  </si>
+  <si>
+    <t>10177231</t>
+  </si>
+  <si>
+    <t>10177266</t>
+  </si>
+  <si>
+    <t>10177309</t>
+  </si>
+  <si>
+    <t>10177350</t>
+  </si>
+  <si>
+    <t>10177361</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.ConfirmDelAlert.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=114.0.5735.199)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [65a3536904e7a7006b2ad36f4a7a6359, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55353}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55353/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 65a3536904e7a7006b2ad36f4a7a6359</t>
+  </si>
+  <si>
+    <t>10177401</t>
+  </si>
+  <si>
+    <t>10177433</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to no longer be visible: By.id: loaderDiv (tried for 35 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63315}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63315/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b0d43b25082683feaf3c21b0663020ae</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=114.0.5735.199)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b0d43b25082683feaf3c21b0663020ae, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63315}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63315/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b0d43b25082683feaf3c21b0663020ae</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to no longer be visible: By.id: loaderDiv (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63315}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63315/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b0d43b25082683feaf3c21b0663020ae</t>
+  </si>
+  <si>
+    <t>10177520</t>
+  </si>
+  <si>
+    <t>10177539</t>
+  </si>
+  <si>
+    <t>10177555</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to no longer be visible: By.id: loaderDiv (tried for 30 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63315}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63315/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b0d43b25082683feaf3c21b0663020ae</t>
+  </si>
+  <si>
+    <t>10177565</t>
+  </si>
+  <si>
+    <t>794645216124</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to no longer be visible: By.id: loaderDiv (tried for 35 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:49701}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49701/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 26a351bd781f4b91410b555a2f9a6bf5</t>
+  </si>
+  <si>
+    <t>10177619</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to no longer be visible: By.id: loaderDiv (tried for 30 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:49701}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49701/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 26a351bd781f4b91410b555a2f9a6bf5</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.id: AdvancesSearch (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:49548}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49548/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a3d3a898a19d41544c4d3ebb2561dee4</t>
+  </si>
+  <si>
+    <t>10178021</t>
+  </si>
+  <si>
+    <t>794645268198</t>
+  </si>
+  <si>
+    <t>10178099</t>
   </si>
 </sst>
 </file>
@@ -817,7 +947,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -839,7 +969,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -861,7 +991,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -883,7 +1013,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -905,7 +1035,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
@@ -927,7 +1057,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
@@ -949,7 +1079,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
@@ -971,7 +1101,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
@@ -993,7 +1123,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
@@ -1037,7 +1167,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -1059,11 +1189,11 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
@@ -1081,11 +1211,11 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
@@ -1151,7 +1281,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
@@ -1173,7 +1303,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
         <v>44</v>
@@ -1215,11 +1345,11 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
         <v>44</v>
@@ -1285,7 +1415,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>

--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="73">
   <si>
     <t>Service</t>
   </si>
@@ -176,340 +176,89 @@
     <t>Process</t>
   </si>
   <si>
-    <t>10167752</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for visibility of all elements located by By.id: RouteWorkFlow (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60048}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:60048/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 75ad5ae127e6f8d1018b890fd3b2865b</t>
-  </si>
-  <si>
-    <t>10167931</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for visibility of all elements located by By.id: RouteWorkFlow (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:54105}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:54105/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 4f615150c84dd69e2a72ce634aec31bf</t>
-  </si>
-  <si>
-    <t>10169469</t>
-  </si>
-  <si>
-    <t>10169480</t>
-  </si>
-  <si>
-    <t>10169553</t>
-  </si>
-  <si>
-    <t>10169582</t>
-  </si>
-  <si>
-    <t>10169611</t>
-  </si>
-  <si>
-    <t>10169644</t>
+    <t>10270630</t>
+  </si>
+  <si>
+    <t>10270639</t>
+  </si>
+  <si>
+    <t>10270647</t>
+  </si>
+  <si>
+    <t>10270658</t>
+  </si>
+  <si>
+    <t>10270667</t>
+  </si>
+  <si>
+    <t>10270698</t>
+  </si>
+  <si>
+    <t>10271507</t>
+  </si>
+  <si>
+    <t>10271514</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.P3P.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>10271522</t>
+  </si>
+  <si>
+    <t>10271561</t>
+  </si>
+  <si>
+    <t>10271624</t>
+  </si>
+  <si>
+    <t>10271626</t>
+  </si>
+  <si>
+    <t>10271634</t>
+  </si>
+  <si>
+    <t>10271654</t>
+  </si>
+  <si>
+    <t>10271665</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=114.0.5735.199)
+  (Session info: headless chrome=116.0.5845.142)
 For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
 Build info: version: '4.9.0', revision: 'd7057100a6'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [65786b9df6723dd95dec9e3354ee07c7, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51826}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:51826/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 65786b9df6723dd95dec9e3354ee07c7</t>
-  </si>
-  <si>
-    <t>10169669</t>
-  </si>
-  <si>
-    <t>10169679</t>
-  </si>
-  <si>
-    <t>10169716</t>
-  </si>
-  <si>
-    <t>10169727</t>
-  </si>
-  <si>
-    <t>10169809</t>
-  </si>
-  <si>
-    <t>10169870</t>
+Command: [b4bbd08a520f40ba5355afa317feac7c, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51985}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:51985/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b4bbd08a520f40ba5355afa317feac7c</t>
+  </si>
+  <si>
+    <t>10271675</t>
   </si>
   <si>
     <t>script timeout
-  (Session info: headless chrome=114.0.5735.199)
+  (Session info: headless chrome=116.0.5845.142)
 Build info: version: '4.9.0', revision: 'd7057100a6'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [65786b9df6723dd95dec9e3354ee07c7, executeScript {script=arguments[0].click();, args=[{element-6066-11e4-a52e-4f735466cecf=444C0BF40FDC551C202A0DD8D6DFE972_element_1042}]}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51826}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:51826/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 65786b9df6723dd95dec9e3354ee07c7</t>
-  </si>
-  <si>
-    <t>10169918</t>
-  </si>
-  <si>
-    <t>10169948</t>
-  </si>
-  <si>
-    <t>794644248189</t>
-  </si>
-  <si>
-    <t>10170039</t>
-  </si>
-  <si>
-    <t>10174207</t>
-  </si>
-  <si>
-    <t>10174257</t>
-  </si>
-  <si>
-    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.P3P.isElementPresent(String)" is null</t>
-  </si>
-  <si>
-    <t>10174390</t>
-  </si>
-  <si>
-    <t>10174439</t>
-  </si>
-  <si>
-    <t>10174489</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=114.0.5735.199)
-For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [b17ac36a00411dcede58a1f10be27993, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56311}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:56311/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: b17ac36a00411dcede58a1f10be27993</t>
-  </si>
-  <si>
-    <t>10174515</t>
-  </si>
-  <si>
-    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.TCAcknowledge.isElementPresent(String)" is null</t>
-  </si>
-  <si>
-    <t>Cannot invoke "org.openqa.selenium.WebElement.isDisplayed()" because "element" is null</t>
-  </si>
-  <si>
-    <t>10174649</t>
-  </si>
-  <si>
-    <t>10174777</t>
-  </si>
-  <si>
-    <t>10174796</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=114.0.5735.199)
-For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [7428a400698fe37c459eee43f786dfb6, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62978}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:62978/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 7428a400698fe37c459eee43f786dfb6</t>
-  </si>
-  <si>
-    <t>10174856</t>
-  </si>
-  <si>
-    <t>10174891</t>
-  </si>
-  <si>
-    <t>10174957</t>
-  </si>
-  <si>
-    <t>10175013</t>
-  </si>
-  <si>
-    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.NATenderTo3P.isElementPresent(String)" is null</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=114.0.5735.199)
-For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [715f3450daaf750f829090189e9d3516, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:49479}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49479/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 715f3450daaf750f829090189e9d3516</t>
-  </si>
-  <si>
-    <t>10175322</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 100 second(s) with 500 milliseconds interval)
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50641}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50641/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 920cc76f107dfdadf8beddef7e3124ef</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=114.0.5735.199)
-For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [920cc76f107dfdadf8beddef7e3124ef, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50641}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50641/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 920cc76f107dfdadf8beddef7e3124ef</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for visibility of element located by By.id: a_tools (tried for 30 second(s) with 500 milliseconds interval)</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for visibility of element located by By.id: a_operations (tried for 50 second(s) with 500 milliseconds interval)</t>
-  </si>
-  <si>
-    <t>135805790</t>
-  </si>
-  <si>
-    <t>10177090</t>
-  </si>
-  <si>
-    <t>10177120</t>
-  </si>
-  <si>
-    <t>10177189</t>
-  </si>
-  <si>
-    <t>10177231</t>
-  </si>
-  <si>
-    <t>10177266</t>
-  </si>
-  <si>
-    <t>10177309</t>
-  </si>
-  <si>
-    <t>10177350</t>
-  </si>
-  <si>
-    <t>10177361</t>
-  </si>
-  <si>
-    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.ConfirmDelAlert.isElementPresent(String)" is null</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=114.0.5735.199)
-For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [65a3536904e7a7006b2ad36f4a7a6359, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55353}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55353/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 65a3536904e7a7006b2ad36f4a7a6359</t>
-  </si>
-  <si>
-    <t>10177401</t>
-  </si>
-  <si>
-    <t>10177433</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for element to no longer be visible: By.id: loaderDiv (tried for 35 second(s) with 500 milliseconds interval)
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63315}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63315/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: b0d43b25082683feaf3c21b0663020ae</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=114.0.5735.199)
-For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [b0d43b25082683feaf3c21b0663020ae, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63315}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63315/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: b0d43b25082683feaf3c21b0663020ae</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for element to no longer be visible: By.id: loaderDiv (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63315}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63315/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: b0d43b25082683feaf3c21b0663020ae</t>
-  </si>
-  <si>
-    <t>10177520</t>
-  </si>
-  <si>
-    <t>10177539</t>
-  </si>
-  <si>
-    <t>10177555</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for element to no longer be visible: By.id: loaderDiv (tried for 30 second(s) with 500 milliseconds interval)
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63315}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63315/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: b0d43b25082683feaf3c21b0663020ae</t>
-  </si>
-  <si>
-    <t>10177565</t>
-  </si>
-  <si>
-    <t>794645216124</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for element to no longer be visible: By.id: loaderDiv (tried for 35 second(s) with 500 milliseconds interval)
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:49701}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49701/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 26a351bd781f4b91410b555a2f9a6bf5</t>
-  </si>
-  <si>
-    <t>10177619</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for element to no longer be visible: By.id: loaderDiv (tried for 30 second(s) with 500 milliseconds interval)
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:49701}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49701/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 26a351bd781f4b91410b555a2f9a6bf5</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for visibility of all elements located by By.id: AdvancesSearch (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 114.0.5735.199, chrome: {chromedriverVersion: 114.0.5735.90 (386bc09e8f4f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:49548}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49548/devtoo..., se:cdpVersion: 114.0.5735.199, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: a3d3a898a19d41544c4d3ebb2561dee4</t>
-  </si>
-  <si>
-    <t>10178021</t>
-  </si>
-  <si>
-    <t>794645268198</t>
-  </si>
-  <si>
-    <t>10178099</t>
+Command: [b4bbd08a520f40ba5355afa317feac7c, isElementDisplayed {id=426180623C11E220AF3C36F51FCFA018_element_50}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51985}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:51985/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on WINDOWS (b4bbd08a520f40ba5355afa317feac7c)] -&gt; id: loaderDiv]
+Session ID: b4bbd08a520f40ba5355afa317feac7c</t>
+  </si>
+  <si>
+    <t>10271676</t>
+  </si>
+  <si>
+    <t>794658966952</t>
+  </si>
+  <si>
+    <t>10271688</t>
+  </si>
+  <si>
+    <t>136871822</t>
   </si>
 </sst>
 </file>
@@ -900,7 +649,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,21 +696,17 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -969,21 +714,17 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -991,21 +732,17 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1013,21 +750,17 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1035,21 +768,17 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1057,21 +786,17 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1079,21 +804,17 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1101,21 +822,17 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1123,21 +840,17 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1145,21 +858,17 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1167,21 +876,17 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1189,7 +894,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -1198,12 +903,8 @@
       <c r="F13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1211,7 +912,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -1220,12 +921,8 @@
       <c r="F14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>44</v>
-      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1237,17 +934,13 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
       </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1259,17 +952,13 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
       </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s">
-        <v>44</v>
-      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1286,12 +975,8 @@
       <c r="F17" t="s">
         <v>44</v>
       </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
-        <v>44</v>
-      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1308,12 +993,8 @@
       <c r="F18" t="s">
         <v>44</v>
       </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>44</v>
-      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1330,12 +1011,8 @@
       <c r="F19" t="s">
         <v>44</v>
       </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" t="s">
-        <v>44</v>
-      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1345,7 +1022,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" t="s">
@@ -1354,12 +1031,8 @@
       <c r="F20" t="s">
         <v>44</v>
       </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" t="s">
-        <v>44</v>
-      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1376,12 +1049,8 @@
       <c r="F21" t="s">
         <v>44</v>
       </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s">
-        <v>44</v>
-      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1398,12 +1067,8 @@
       <c r="F22" t="s">
         <v>44</v>
       </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" t="s">
-        <v>44</v>
-      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1420,12 +1085,8 @@
       <c r="F23" t="s">
         <v>44</v>
       </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s">
-        <v>44</v>
-      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1435,30 +1096,24 @@
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
         <v>44</v>
       </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>44</v>
-      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
         <v>27</v>
@@ -1466,12 +1121,8 @@
       <c r="F25" t="s">
         <v>44</v>
       </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" t="s">
-        <v>44</v>
-      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1486,12 +1137,8 @@
       <c r="F26" t="s">
         <v>44</v>
       </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" t="s">
-        <v>44</v>
-      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">

--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="105">
   <si>
     <t>Service</t>
   </si>
@@ -259,6 +259,140 @@
   </si>
   <si>
     <t>136871822</t>
+  </si>
+  <si>
+    <t>10276070</t>
+  </si>
+  <si>
+    <t>10276123</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.isDisplayed()" because "element" is null</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.TCAcknowledge.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=116.0.5845.142)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [042158f84f3375453d27a5b55d9cfdf3, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63951}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63951/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 042158f84f3375453d27a5b55d9cfdf3</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.SDC.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.142)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [042158f84f3375453d27a5b55d9cfdf3, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63951}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63951/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 042158f84f3375453d27a5b55d9cfdf3</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of element located by By.id: a_tools (tried for 60 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of element located by By.id: a_operations (tried for 50 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: By.id: idJobOverview (tried for 60 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>10276189</t>
+  </si>
+  <si>
+    <t>10276200</t>
+  </si>
+  <si>
+    <t>10276217</t>
+  </si>
+  <si>
+    <t>10276250</t>
+  </si>
+  <si>
+    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
+  (Session info: headless chrome=116.0.5845.142)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d30b8ddfcd66d7e605a64e1e09fc7a3c, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49799}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49799/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d30b8ddfcd66d7e605a64e1e09fc7a3c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.142)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d30b8ddfcd66d7e605a64e1e09fc7a3c, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49799}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49799/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d30b8ddfcd66d7e605a64e1e09fc7a3c</t>
+  </si>
+  <si>
+    <t>10276268</t>
+  </si>
+  <si>
+    <t>10276301</t>
+  </si>
+  <si>
+    <t>10276307</t>
+  </si>
+  <si>
+    <t>10276322</t>
+  </si>
+  <si>
+    <t>10276342</t>
+  </si>
+  <si>
+    <t>10276348</t>
+  </si>
+  <si>
+    <t>10276357</t>
+  </si>
+  <si>
+    <t>10276377</t>
+  </si>
+  <si>
+    <t>10276394</t>
+  </si>
+  <si>
+    <t>794659437179</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.142)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a3777919d8494fa763fd310e1dbfa7ba, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59939}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:59939/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a3777919d8494fa763fd310e1dbfa7ba</t>
+  </si>
+  <si>
+    <t>136919124</t>
+  </si>
+  <si>
+    <t>10276781</t>
+  </si>
+  <si>
+    <t>10276847</t>
+  </si>
+  <si>
+    <t>794659454491</t>
+  </si>
+  <si>
+    <t>10276859</t>
   </si>
 </sst>
 </file>
@@ -696,11 +830,11 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -714,11 +848,11 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -732,14 +866,14 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -750,11 +884,11 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -768,11 +902,11 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -786,11 +920,11 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -804,11 +938,11 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
@@ -822,11 +956,11 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
@@ -840,11 +974,11 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
@@ -858,14 +992,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -876,14 +1010,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -894,7 +1028,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -912,7 +1046,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -934,7 +1068,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
@@ -952,7 +1086,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
@@ -1022,7 +1156,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" t="s">
@@ -1096,11 +1230,11 @@
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
         <v>44</v>
@@ -1116,7 +1250,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
         <v>44</v>

--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="250">
   <si>
     <t>Service</t>
   </si>
@@ -261,40 +261,215 @@
     <t>136871822</t>
   </si>
   <si>
-    <t>10276070</t>
-  </si>
-  <si>
-    <t>10276123</t>
+    <t>10289423</t>
+  </si>
+  <si>
+    <t>10289438</t>
+  </si>
+  <si>
+    <t>10289459</t>
+  </si>
+  <si>
+    <t>10289475</t>
+  </si>
+  <si>
+    <t>10289497</t>
+  </si>
+  <si>
+    <t>10289527</t>
+  </si>
+  <si>
+    <t>10289547</t>
+  </si>
+  <si>
+    <t>10289555</t>
+  </si>
+  <si>
+    <t>10289572</t>
+  </si>
+  <si>
+    <t>10289585</t>
+  </si>
+  <si>
+    <t>10289605</t>
+  </si>
+  <si>
+    <t>10289628</t>
+  </si>
+  <si>
+    <t>794662264910</t>
+  </si>
+  <si>
+    <t>10291874</t>
+  </si>
+  <si>
+    <t>10291875</t>
+  </si>
+  <si>
+    <t>10291882</t>
+  </si>
+  <si>
+    <t>10291883</t>
+  </si>
+  <si>
+    <t>10291888</t>
+  </si>
+  <si>
+    <t>10291909</t>
+  </si>
+  <si>
+    <t>10291918</t>
+  </si>
+  <si>
+    <t>10291919</t>
+  </si>
+  <si>
+    <t>10291920</t>
+  </si>
+  <si>
+    <t>10291924</t>
+  </si>
+  <si>
+    <t>10291928</t>
+  </si>
+  <si>
+    <t>10291934</t>
+  </si>
+  <si>
+    <t>794662466193</t>
+  </si>
+  <si>
+    <t>10291940</t>
+  </si>
+  <si>
+    <t>137064216</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button class="btn btn-primary greybtn ng-binding disabled" id="GreyTick" ng-bind="task.EventText" ng-class="task.TaskImage" ng-click="TransRouteProcessing('...',RouteForm)"&gt;Acknowledge&lt;/button&gt; is not clickable at point (1783, 880). Other element would receive the click: &lt;div class="form-group margin-top-5 text-center"&gt;...&lt;/div&gt;
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [4a160ca06ccafb66acf959b48a51e1e5, clickElement {id=B974068B2F81CD06905EBAC27CF80808_element_31377}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58959}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:58959/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on WINDOWS (4a160ca06ccafb66acf959b48a51e1e5)] -&gt; id: GreyTick]
+Session ID: 4a160ca06ccafb66acf959b48a51e1e5</t>
+  </si>
+  <si>
+    <t>10297398</t>
+  </si>
+  <si>
+    <t>10297410</t>
+  </si>
+  <si>
+    <t>10297417</t>
+  </si>
+  <si>
+    <t>10297418</t>
+  </si>
+  <si>
+    <t>10297433</t>
+  </si>
+  <si>
+    <t>10297467</t>
+  </si>
+  <si>
+    <t>10297478</t>
+  </si>
+  <si>
+    <t>10297536</t>
+  </si>
+  <si>
+    <t>10297551</t>
+  </si>
+  <si>
+    <t>10297565</t>
+  </si>
+  <si>
+    <t>794662607844</t>
+  </si>
+  <si>
+    <t>10297571</t>
+  </si>
+  <si>
+    <t>137154539</t>
+  </si>
+  <si>
+    <t>10299816</t>
+  </si>
+  <si>
+    <t>10299820</t>
+  </si>
+  <si>
+    <t>10299854</t>
+  </si>
+  <si>
+    <t>10299898</t>
+  </si>
+  <si>
+    <t>10299912</t>
   </si>
   <si>
     <t>Cannot invoke "org.openqa.selenium.WebElement.isDisplayed()" because "element" is null</t>
   </si>
   <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.SDC.isElementPresent(String)" is null</t>
+  </si>
+  <si>
     <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.TCAcknowledge.isElementPresent(String)" is null</t>
   </si>
   <si>
-    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
-  (Session info: headless chrome=116.0.5845.142)
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [042158f84f3375453d27a5b55d9cfdf3, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63951}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63951/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 042158f84f3375453d27a5b55d9cfdf3</t>
-  </si>
-  <si>
-    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.SDC.isElementPresent(String)" is null</t>
-  </si>
-  <si>
     <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=116.0.5845.142)
+  (Session info: headless chrome=116.0.5845.188)
 For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
 Build info: version: '4.9.0', revision: 'd7057100a6'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [042158f84f3375453d27a5b55d9cfdf3, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63951}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63951/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 042158f84f3375453d27a5b55d9cfdf3</t>
+Command: [e1eeec0e1789033b1aef7d65c6546fa1, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53311}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:53311/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e1eeec0e1789033b1aef7d65c6546fa1</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53311}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:53311/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e1eeec0e1789033b1aef7d65c6546fa1</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53311}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:53311/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e1eeec0e1789033b1aef7d65c6546fa1</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: By.id: idJobOverview (tried for 60 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>10299997</t>
+  </si>
+  <si>
+    <t>10300013</t>
+  </si>
+  <si>
+    <t>10300026</t>
+  </si>
+  <si>
+    <t>10300029</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [1f6fe2dfe0ce5b45d8eb64ef4fd8490c, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55060}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55060/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1f6fe2dfe0ce5b45d8eb64ef4fd8490c</t>
   </si>
   <si>
     <t>Expected condition failed: waiting for visibility of element located by By.id: a_tools (tried for 60 second(s) with 500 milliseconds interval)</t>
@@ -303,96 +478,561 @@
     <t>Expected condition failed: waiting for visibility of element located by By.id: a_operations (tried for 50 second(s) with 500 milliseconds interval)</t>
   </si>
   <si>
-    <t>Expected condition failed: waiting for element to be clickable: By.id: idJobOverview (tried for 60 second(s) with 500 milliseconds interval)</t>
-  </si>
-  <si>
-    <t>10276189</t>
-  </si>
-  <si>
-    <t>10276200</t>
-  </si>
-  <si>
-    <t>10276217</t>
-  </si>
-  <si>
-    <t>10276250</t>
-  </si>
-  <si>
-    <t>javascript error: Cannot read properties of null (reading 'scrollIntoView')
-  (Session info: headless chrome=116.0.5845.142)
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [d30b8ddfcd66d7e605a64e1e09fc7a3c, executeScript {script=arguments[0].scrollIntoView();, args=[null]}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49799}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49799/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: d30b8ddfcd66d7e605a64e1e09fc7a3c</t>
+    <t>10300339</t>
+  </si>
+  <si>
+    <t>794663069897</t>
+  </si>
+  <si>
+    <t>10300355</t>
+  </si>
+  <si>
+    <t>137180176</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button class="btn btn-primary greybtn ng-binding disabled" id="GreyTick" ng-bind="task.EventText" ng-class="task.TaskImage" ng-click="TransRouteProcessing('...',RouteForm)"&gt;Acknowledge&lt;/button&gt; is not clickable at point (1783, 880). Other element would receive the click: &lt;div class="form-group margin-top-5 text-center"&gt;...&lt;/div&gt;
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [86b14f904c74a755ef1e2715e7104c4b, clickElement {id=91A57207A9681F453953BCDF10FE5F77_element_6595}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53792}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:53792/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on WINDOWS (86b14f904c74a755ef1e2715e7104c4b)] -&gt; id: GreyTick]
+Session ID: 86b14f904c74a755ef1e2715e7104c4b</t>
+  </si>
+  <si>
+    <t>10301920</t>
+  </si>
+  <si>
+    <t>10301929</t>
+  </si>
+  <si>
+    <t>10301973</t>
+  </si>
+  <si>
+    <t>10301977</t>
+  </si>
+  <si>
+    <t>10301981</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=116.0.5845.142)
+  (Session info: headless chrome=116.0.5845.188)
 For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
 Build info: version: '4.9.0', revision: 'd7057100a6'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [d30b8ddfcd66d7e605a64e1e09fc7a3c, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49799}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49799/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: d30b8ddfcd66d7e605a64e1e09fc7a3c</t>
-  </si>
-  <si>
-    <t>10276268</t>
-  </si>
-  <si>
-    <t>10276301</t>
-  </si>
-  <si>
-    <t>10276307</t>
-  </si>
-  <si>
-    <t>10276322</t>
-  </si>
-  <si>
-    <t>10276342</t>
-  </si>
-  <si>
-    <t>10276348</t>
-  </si>
-  <si>
-    <t>10276357</t>
-  </si>
-  <si>
-    <t>10276377</t>
-  </si>
-  <si>
-    <t>10276394</t>
-  </si>
-  <si>
-    <t>794659437179</t>
+Command: [0a6011b280866bb190c1f55bff073047, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57691}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:57691/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0a6011b280866bb190c1f55bff073047</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57691}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:57691/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0a6011b280866bb190c1f55bff073047</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57691}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:57691/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0a6011b280866bb190c1f55bff073047</t>
+  </si>
+  <si>
+    <t>10302143</t>
+  </si>
+  <si>
+    <t>10302157</t>
+  </si>
+  <si>
+    <t>10302165</t>
+  </si>
+  <si>
+    <t>10302168</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=116.0.5845.142)
+  (Session info: headless chrome=116.0.5845.188)
 For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
 Build info: version: '4.9.0', revision: 'd7057100a6'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [a3777919d8494fa763fd310e1dbfa7ba, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.142, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59939}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:59939/devtoo..., se:cdpVersion: 116.0.5845.142, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: a3777919d8494fa763fd310e1dbfa7ba</t>
-  </si>
-  <si>
-    <t>136919124</t>
-  </si>
-  <si>
-    <t>10276781</t>
-  </si>
-  <si>
-    <t>10276847</t>
-  </si>
-  <si>
-    <t>794659454491</t>
-  </si>
-  <si>
-    <t>10276859</t>
+Command: [ab013649d6bc8f22fc7fe6108985266d, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60685}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:60685/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ab013649d6bc8f22fc7fe6108985266d</t>
+  </si>
+  <si>
+    <t>10302201</t>
+  </si>
+  <si>
+    <t>10302217</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [eba10b16e6de9a3345456455b0a12089, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54555}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:54555/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: eba10b16e6de9a3345456455b0a12089</t>
+  </si>
+  <si>
+    <t>10303942</t>
+  </si>
+  <si>
+    <t>10303947</t>
+  </si>
+  <si>
+    <t>10303958</t>
+  </si>
+  <si>
+    <t>10303964</t>
+  </si>
+  <si>
+    <t>10303971</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ab2b246adb27aae1378ce8a5c9412158, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55956}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55956/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ab2b246adb27aae1378ce8a5c9412158</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55956}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55956/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ab2b246adb27aae1378ce8a5c9412158</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55956}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55956/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ab2b246adb27aae1378ce8a5c9412158</t>
+  </si>
+  <si>
+    <t>10304072</t>
+  </si>
+  <si>
+    <t>10304087</t>
+  </si>
+  <si>
+    <t>10304096</t>
+  </si>
+  <si>
+    <t>10304099</t>
+  </si>
+  <si>
+    <t>10304103</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [37a9658d22548806f6a9e2f69da1af8f, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64035}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:64035/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 37a9658d22548806f6a9e2f69da1af8f</t>
+  </si>
+  <si>
+    <t>10304152</t>
+  </si>
+  <si>
+    <t>794664043610</t>
+  </si>
+  <si>
+    <t>10304170</t>
+  </si>
+  <si>
+    <t>137227356</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button class="btn btn-primary greybtn ng-binding disabled" id="GreyTick" ng-bind="task.EventText" ng-class="task.TaskImage" ng-click="TransRouteProcessing('...',RouteForm)"&gt;Acknowledge&lt;/button&gt; is not clickable at point (1783, 880). Other element would receive the click: &lt;div class="form-group margin-top-5 text-center"&gt;...&lt;/div&gt;
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [567681486093af8a6f2ff3ac51817bc8, clickElement {id=D7134254E36114CD4ABDBAAD7A45040C_element_5936}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62071}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:62071/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on WINDOWS (567681486093af8a6f2ff3ac51817bc8)] -&gt; id: GreyTick]
+Session ID: 567681486093af8a6f2ff3ac51817bc8</t>
+  </si>
+  <si>
+    <t>10308911</t>
+  </si>
+  <si>
+    <t>10308913</t>
+  </si>
+  <si>
+    <t>10308917</t>
+  </si>
+  <si>
+    <t>10308923</t>
+  </si>
+  <si>
+    <t>10308932</t>
+  </si>
+  <si>
+    <t>10308944</t>
+  </si>
+  <si>
+    <t>10308958</t>
+  </si>
+  <si>
+    <t>10308970</t>
+  </si>
+  <si>
+    <t>10308971</t>
+  </si>
+  <si>
+    <t>10308977</t>
+  </si>
+  <si>
+    <t>10308985</t>
+  </si>
+  <si>
+    <t>794664730355</t>
+  </si>
+  <si>
+    <t>10308997</t>
+  </si>
+  <si>
+    <t>137278738</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button class="btn btn-primary greybtn ng-binding disabled" id="GreyTick" ng-bind="task.EventText" ng-class="task.TaskImage" ng-click="TransRouteProcessing('...',RouteForm)"&gt;Acknowledge&lt;/button&gt; is not clickable at point (1783, 880). Other element would receive the click: &lt;div class="form-group margin-top-5 text-center"&gt;...&lt;/div&gt;
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [fed19957b1f9691e79fbeed06e77b63d, clickElement {id=D2B499CD3A4A19F468F47E96441E685D_element_29407}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50928}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50928/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on WINDOWS (fed19957b1f9691e79fbeed06e77b63d)] -&gt; id: GreyTick]
+Session ID: fed19957b1f9691e79fbeed06e77b63d</t>
+  </si>
+  <si>
+    <t>10311210</t>
+  </si>
+  <si>
+    <t>10311217</t>
+  </si>
+  <si>
+    <t>10311233</t>
+  </si>
+  <si>
+    <t>10311246</t>
+  </si>
+  <si>
+    <t>10311276</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [58adf9a03a384a72106d0e7e7c4b17ce, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59672}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:59672/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 58adf9a03a384a72106d0e7e7c4b17ce</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59672}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:59672/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 58adf9a03a384a72106d0e7e7c4b17ce</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59672}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:59672/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 58adf9a03a384a72106d0e7e7c4b17ce</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6b3c2a512aaf6e640248cb83b2315a3c, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61961}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:61961/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6b3c2a512aaf6e640248cb83b2315a3c</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61961}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:61961/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6b3c2a512aaf6e640248cb83b2315a3c</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61961}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:61961/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6b3c2a512aaf6e640248cb83b2315a3c</t>
+  </si>
+  <si>
+    <t>10311379</t>
+  </si>
+  <si>
+    <t>10311387</t>
+  </si>
+  <si>
+    <t>10311401</t>
+  </si>
+  <si>
+    <t>10311405</t>
+  </si>
+  <si>
+    <t>10311419</t>
+  </si>
+  <si>
+    <t>10311427</t>
+  </si>
+  <si>
+    <t>794665174744</t>
+  </si>
+  <si>
+    <t>10311441</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [30e4013b6369e3951dee892877bf2981, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54763}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:54763/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 30e4013b6369e3951dee892877bf2981</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54763}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:54763/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 30e4013b6369e3951dee892877bf2981</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54763}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:54763/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 30e4013b6369e3951dee892877bf2981</t>
+  </si>
+  <si>
+    <t>10311479</t>
+  </si>
+  <si>
+    <t>137304965</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button class="btn btn-primary greybtn ng-binding disabled" id="GreyTick" ng-bind="task.EventText" ng-class="task.TaskImage" ng-click="TransRouteProcessing('...',RouteForm)"&gt;Acknowledge&lt;/button&gt; is not clickable at point (1783, 880). Other element would receive the click: &lt;div class="form-group margin-top-5 text-center"&gt;...&lt;/div&gt;
+  (Session info: headless chrome=116.0.5845.188)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [149075d375e7c3606919211a2df42cb6, clickElement {id=C79D45970539BEC659769CEFBB9D6308_element_3227}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55538}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55538/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on WINDOWS (149075d375e7c3606919211a2df42cb6)] -&gt; id: GreyTick]
+Session ID: 149075d375e7c3606919211a2df42cb6</t>
+  </si>
+  <si>
+    <t>10313908</t>
+  </si>
+  <si>
+    <t>10313918</t>
+  </si>
+  <si>
+    <t>10313927</t>
+  </si>
+  <si>
+    <t>10313936</t>
+  </si>
+  <si>
+    <t>10313951</t>
+  </si>
+  <si>
+    <t>10314023</t>
+  </si>
+  <si>
+    <t>10314027</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3cccd38f762707f9562cbbb9a552a5e0, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50812}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50812/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3cccd38f762707f9562cbbb9a552a5e0</t>
+  </si>
+  <si>
+    <t>10314040</t>
+  </si>
+  <si>
+    <t>10314046</t>
+  </si>
+  <si>
+    <t>10314060</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [477cea2c68a306fa7f81a9cb388c05ee, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61108}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:61108/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 477cea2c68a306fa7f81a9cb388c05ee</t>
+  </si>
+  <si>
+    <t>10314164</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=116.0.5845.188)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [10b67bbf57a079fedab3e1c9295a3512, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 116.0.5845.188, chrome: {chromedriverVersion: 116.0.5845.96 (1a3918166880..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61252}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:61252/devtoo..., se:cdpVersion: 116.0.5845.188, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 10b67bbf57a079fedab3e1c9295a3512</t>
+  </si>
+  <si>
+    <t>10314196</t>
+  </si>
+  <si>
+    <t>794665577571</t>
+  </si>
+  <si>
+    <t>10314201</t>
+  </si>
+  <si>
+    <t>137333961</t>
+  </si>
+  <si>
+    <t>10318713</t>
+  </si>
+  <si>
+    <t>10318732</t>
+  </si>
+  <si>
+    <t>10318744</t>
+  </si>
+  <si>
+    <t>10318745</t>
+  </si>
+  <si>
+    <t>10318749</t>
+  </si>
+  <si>
+    <t>10318755</t>
+  </si>
+  <si>
+    <t>10318764</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=117.0.5938.92)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [891cb3e7afeab969009a4d324ad2b7cc, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58605}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:58605/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 891cb3e7afeab969009a4d324ad2b7cc</t>
+  </si>
+  <si>
+    <t>10318882</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=117.0.5938.92)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [21066fa5808710c11bc433c396ad8028, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58116}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:58116/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 21066fa5808710c11bc433c396ad8028</t>
+  </si>
+  <si>
+    <t>10318966</t>
+  </si>
+  <si>
+    <t>10318982</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=117.0.5938.92)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [bd2c7e80b461c27ce02cd540216857c7, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53629}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:53629/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: bd2c7e80b461c27ce02cd540216857c7</t>
+  </si>
+  <si>
+    <t>10319021</t>
+  </si>
+  <si>
+    <t>10319040</t>
+  </si>
+  <si>
+    <t>10319090</t>
+  </si>
+  <si>
+    <t>script timeout
+  (Session info: headless chrome=117.0.5938.92)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [af401e8da723b5ec9413a82931cfb58b, executeScript {script=arguments[0].click();, args=[{element-6066-11e4-a52e-4f735466cecf=1746FDC1DC200E9A68E1ACEF68014562_element_2072}]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61978}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:61978/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: af401e8da723b5ec9413a82931cfb58b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=117.0.5938.92)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [af401e8da723b5ec9413a82931cfb58b, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61978}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:61978/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: af401e8da723b5ec9413a82931cfb58b</t>
   </si>
 </sst>
 </file>
@@ -830,7 +1470,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -848,11 +1488,11 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -866,11 +1506,11 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -884,14 +1524,14 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -902,7 +1542,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
@@ -938,7 +1578,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>237</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
@@ -956,14 +1596,14 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -974,14 +1614,14 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -992,14 +1632,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1010,14 +1650,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1028,14 +1668,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1046,14 +1686,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1068,7 +1708,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
@@ -1104,7 +1744,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
@@ -1156,11 +1796,11 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
         <v>44</v>
@@ -1230,14 +1870,14 @@
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1250,10 +1890,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1266,10 +1906,10 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="260">
   <si>
     <t>Service</t>
   </si>
@@ -942,97 +942,112 @@
     <t>137333961</t>
   </si>
   <si>
-    <t>10318713</t>
-  </si>
-  <si>
-    <t>10318732</t>
-  </si>
-  <si>
-    <t>10318744</t>
-  </si>
-  <si>
-    <t>10318745</t>
-  </si>
-  <si>
-    <t>10318749</t>
-  </si>
-  <si>
-    <t>10318755</t>
-  </si>
-  <si>
-    <t>10318764</t>
+    <t>10326451</t>
+  </si>
+  <si>
+    <t>10326462</t>
+  </si>
+  <si>
+    <t>10326471</t>
+  </si>
+  <si>
+    <t>10326486</t>
+  </si>
+  <si>
+    <t>10326499</t>
+  </si>
+  <si>
+    <t>10326505</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=117.0.5938.92)
+  (Session info: headless chrome=117.0.5938.132)
 For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
 Build info: version: '4.9.0', revision: 'd7057100a6'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [891cb3e7afeab969009a4d324ad2b7cc, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58605}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:58605/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 891cb3e7afeab969009a4d324ad2b7cc</t>
-  </si>
-  <si>
-    <t>10318882</t>
+Command: [9d32c3380cc50bf75498923ad8df7b41, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.132, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58717}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:58717/devtoo..., se:cdpVersion: 117.0.5938.132, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9d32c3380cc50bf75498923ad8df7b41</t>
+  </si>
+  <si>
+    <t>10326548</t>
+  </si>
+  <si>
+    <t>10326565</t>
+  </si>
+  <si>
+    <t>10326578</t>
+  </si>
+  <si>
+    <t>10326629</t>
+  </si>
+  <si>
+    <t>10326641</t>
+  </si>
+  <si>
+    <t>10326648</t>
+  </si>
+  <si>
+    <t>10326662</t>
+  </si>
+  <si>
+    <t>10326673</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.NATenderTo3P.isElementPresent(String)" is null</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=117.0.5938.92)
+  (Session info: headless chrome=117.0.5938.132)
 For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
 Build info: version: '4.9.0', revision: 'd7057100a6'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [21066fa5808710c11bc433c396ad8028, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58116}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:58116/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 21066fa5808710c11bc433c396ad8028</t>
-  </si>
-  <si>
-    <t>10318966</t>
-  </si>
-  <si>
-    <t>10318982</t>
+Command: [b66f2cced32562c147ec00abc02e1071, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.132, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65408}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:65408/devtoo..., se:cdpVersion: 117.0.5938.132, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b66f2cced32562c147ec00abc02e1071</t>
+  </si>
+  <si>
+    <t>10326709</t>
+  </si>
+  <si>
+    <t>10326760</t>
+  </si>
+  <si>
+    <t>10326800</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=117.0.5938.92)
+  (Session info: headless chrome=117.0.5938.132)
 For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
 Build info: version: '4.9.0', revision: 'd7057100a6'
 System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [bd2c7e80b461c27ce02cd540216857c7, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53629}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:53629/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: bd2c7e80b461c27ce02cd540216857c7</t>
-  </si>
-  <si>
-    <t>10319021</t>
-  </si>
-  <si>
-    <t>10319040</t>
-  </si>
-  <si>
-    <t>10319090</t>
-  </si>
-  <si>
-    <t>script timeout
-  (Session info: headless chrome=117.0.5938.92)
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [af401e8da723b5ec9413a82931cfb58b, executeScript {script=arguments[0].click();, args=[{element-6066-11e4-a52e-4f735466cecf=1746FDC1DC200E9A68E1ACEF68014562_element_2072}]}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61978}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:61978/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: af401e8da723b5ec9413a82931cfb58b</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
-  (Session info: headless chrome=117.0.5938.92)
-For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
-Build info: version: '4.9.0', revision: 'd7057100a6'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [af401e8da723b5ec9413a82931cfb58b, findElement {using=id, value=lblServiceID}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61978}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:61978/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: af401e8da723b5ec9413a82931cfb58b</t>
+Command: [224e66838bc75c42f9021efe5a42a241, findElement {using=id, value=lblServiceID}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.132, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58765}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:58765/devtoo..., se:cdpVersion: 117.0.5938.132, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 224e66838bc75c42f9021efe5a42a241</t>
+  </si>
+  <si>
+    <t>10327092</t>
+  </si>
+  <si>
+    <t>10327091</t>
+  </si>
+  <si>
+    <t>10327526</t>
+  </si>
+  <si>
+    <t>10327538</t>
+  </si>
+  <si>
+    <t>10327565</t>
+  </si>
+  <si>
+    <t>10327611</t>
+  </si>
+  <si>
+    <t>10329128</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1485,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -1488,11 +1503,11 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -1506,11 +1521,11 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1524,14 +1539,14 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1542,7 +1557,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
@@ -1578,7 +1593,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
@@ -1596,14 +1611,14 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1614,14 +1629,14 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1632,14 +1647,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1654,10 +1669,10 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1672,10 +1687,10 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1690,10 +1705,10 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1762,7 +1777,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
         <v>44</v>
@@ -1854,7 +1869,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
@@ -1874,10 +1889,10 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1890,10 +1905,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1906,10 +1921,10 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="275">
   <si>
     <t>Service</t>
   </si>
@@ -1048,6 +1048,67 @@
   </si>
   <si>
     <t>10329128</t>
+  </si>
+  <si>
+    <t>10331698</t>
+  </si>
+  <si>
+    <t>10331706</t>
+  </si>
+  <si>
+    <t>10331738</t>
+  </si>
+  <si>
+    <t>10331759</t>
+  </si>
+  <si>
+    <t>10331781</t>
+  </si>
+  <si>
+    <t>10331807</t>
+  </si>
+  <si>
+    <t>10331829</t>
+  </si>
+  <si>
+    <t>10331847</t>
+  </si>
+  <si>
+    <t>10331883</t>
+  </si>
+  <si>
+    <t>10331891</t>
+  </si>
+  <si>
+    <t>10331898</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome=117.0.5938.132)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.132, chrome: {chromedriverVersion: 117.0.5938.149 (e3344ddefa1..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53317}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1e9fcc93b88024c6e34193c533e6edf3
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10331942</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=117.0.5938.132)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.132, chrome: {chromedriverVersion: 117.0.5938.149 (e3344ddefa1..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58444}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d65df1f2c8a5d714bc9f8ba22fcbf8af
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10332023</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -1485,7 +1546,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -1503,7 +1564,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -1521,7 +1582,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -1539,7 +1600,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -1557,7 +1618,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
@@ -1575,7 +1636,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
@@ -1593,7 +1654,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
@@ -1611,7 +1672,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
@@ -1629,7 +1690,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
@@ -1647,7 +1708,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -1665,7 +1726,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -1723,7 +1784,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
@@ -1759,7 +1820,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
@@ -1777,7 +1838,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
         <v>44</v>

--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4567" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="341">
   <si>
     <t>Service</t>
   </si>
@@ -1306,6 +1306,15 @@
   </si>
   <si>
     <t>138325086</t>
+  </si>
+  <si>
+    <t>10430990</t>
+  </si>
+  <si>
+    <t>10433636</t>
+  </si>
+  <si>
+    <t>10433637</t>
   </si>
 </sst>
 </file>
@@ -1735,8 +1744,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1753,8 +1762,8 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -1771,8 +1780,8 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+      <c r="A4" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -1789,8 +1798,8 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" t="s">
+        <v>30</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -1807,8 +1816,8 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
+      <c r="A6" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
@@ -1825,8 +1834,8 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
+      <c r="A7" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
@@ -1843,8 +1852,8 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
+      <c r="A8" t="s">
+        <v>30</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
@@ -1861,8 +1870,8 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+      <c r="A9" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
@@ -1879,8 +1888,8 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
+      <c r="A10" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
@@ -1897,12 +1906,12 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
+      <c r="A11" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -1915,8 +1924,8 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
+      <c r="A12" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
@@ -1933,8 +1942,8 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
+      <c r="A13" t="s">
+        <v>30</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
@@ -1951,8 +1960,8 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
+      <c r="A14" t="s">
+        <v>30</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
@@ -1969,7 +1978,7 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1987,7 +1996,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2005,7 +2014,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2023,7 +2032,7 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2041,7 +2050,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2059,7 +2068,7 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2077,7 +2086,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2095,7 +2104,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2113,7 +2122,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2125,14 +2134,14 @@
         <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>335</v>
+        <v>30</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
+      <c r="A24" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>32</v>
@@ -2151,7 +2160,9 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
       <c r="B25" s="6" t="s">
         <v>23</v>
       </c>
@@ -2167,7 +2178,9 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
       <c r="B26" s="6" t="s">
         <v>33</v>
       </c>

--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4939" uniqueCount="351">
   <si>
     <t>Service</t>
   </si>
@@ -1315,6 +1315,36 @@
   </si>
   <si>
     <t>10433637</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.LOC.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>10446100</t>
+  </si>
+  <si>
+    <t>10446171</t>
+  </si>
+  <si>
+    <t>10446173</t>
+  </si>
+  <si>
+    <t>10446218</t>
+  </si>
+  <si>
+    <t>10446228</t>
+  </si>
+  <si>
+    <t>138770583</t>
+  </si>
+  <si>
+    <t>10446274</t>
+  </si>
+  <si>
+    <t>10446282</t>
+  </si>
+  <si>
+    <t>10446298</t>
   </si>
 </sst>
 </file>
@@ -1749,11 +1779,11 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
@@ -1767,11 +1797,11 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -1789,10 +1819,10 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1803,7 +1833,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -1911,7 +1941,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -1929,7 +1959,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -1947,7 +1977,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -1965,7 +1995,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -2147,7 +2177,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4939" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4996" uniqueCount="361">
   <si>
     <t>Service</t>
   </si>
@@ -1345,6 +1345,36 @@
   </si>
   <si>
     <t>10446298</t>
+  </si>
+  <si>
+    <t>139013300</t>
+  </si>
+  <si>
+    <t>10476721</t>
+  </si>
+  <si>
+    <t>10476737</t>
+  </si>
+  <si>
+    <t>10476760</t>
+  </si>
+  <si>
+    <t>10476771</t>
+  </si>
+  <si>
+    <t>10476776</t>
+  </si>
+  <si>
+    <t>10476779</t>
+  </si>
+  <si>
+    <t>10476788</t>
+  </si>
+  <si>
+    <t>10476794</t>
+  </si>
+  <si>
+    <t>139109142</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1809,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -1797,7 +1827,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -1815,11 +1845,11 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>86</v>
@@ -1833,7 +1863,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
@@ -1941,7 +1971,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -1959,7 +1989,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -1977,7 +2007,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -1995,7 +2025,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -2177,7 +2207,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4996" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="377">
   <si>
     <t>Service</t>
   </si>
@@ -1375,6 +1375,75 @@
   </si>
   <si>
     <t>139109142</t>
+  </si>
+  <si>
+    <t>10559234</t>
+  </si>
+  <si>
+    <t>10559239</t>
+  </si>
+  <si>
+    <t>10559271</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: welcomecontent (tried for 40 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.60', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.85, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53722}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ac4ac4f8adc46b45fe7e4eaf003d920b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.85)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.60', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.85, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53722}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ac4ac4f8adc46b45fe7e4eaf003d920b
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10559373</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.NAPickup.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.85)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.60', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.85, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56190}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7cb10ed29b743dd7231dd7d57666aa97
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10559501</t>
+  </si>
+  <si>
+    <t>10559601</t>
+  </si>
+  <si>
+    <t>10559620</t>
+  </si>
+  <si>
+    <t>10559627</t>
+  </si>
+  <si>
+    <t>10559637</t>
+  </si>
+  <si>
+    <t>10559671</t>
+  </si>
+  <si>
+    <t>140124192</t>
+  </si>
+  <si>
+    <t>10559725</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1878,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -1827,7 +1896,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -1845,7 +1914,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
@@ -1863,14 +1932,14 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1971,14 +2040,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>368</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1989,14 +2058,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>368</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2007,14 +2076,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>368</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2025,14 +2094,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>368</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2207,14 +2276,14 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
         <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2232,7 +2301,7 @@
         <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2247,10 +2316,10 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5205" uniqueCount="390">
   <si>
     <t>Service</t>
   </si>
@@ -1444,6 +1444,61 @@
   </si>
   <si>
     <t>10559725</t>
+  </si>
+  <si>
+    <t>10598274</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.185)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.19', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.185, chrome: {chromedriverVersion: 121.0.6167.184 (057a8ae7deb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55991}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ffad2027341bc6e57bfb8d7d36447433
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10598298</t>
+  </si>
+  <si>
+    <t>10598323</t>
+  </si>
+  <si>
+    <t>10598358</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.185)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.19', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.185, chrome: {chromedriverVersion: 121.0.6167.184 (057a8ae7deb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56597}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2694f423ae0c12c9045ac038fd1cef29
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10598409</t>
+  </si>
+  <si>
+    <t>10598456</t>
+  </si>
+  <si>
+    <t>10598468</t>
+  </si>
+  <si>
+    <t>10598480</t>
+  </si>
+  <si>
+    <t>10598486</t>
+  </si>
+  <si>
+    <t>140540486</t>
+  </si>
+  <si>
+    <t>10598893</t>
   </si>
 </sst>
 </file>
@@ -1878,14 +1933,14 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1896,14 +1951,14 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1914,11 +1969,11 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>86</v>
@@ -1932,14 +1987,14 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2040,14 +2095,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2058,14 +2113,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2076,14 +2131,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2094,14 +2149,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2173,7 +2228,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2188,7 +2243,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
         <v>30</v>
@@ -2276,7 +2331,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">

--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5205" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5209" uniqueCount="391">
   <si>
     <t>Service</t>
   </si>
@@ -1499,6 +1499,9 @@
   </si>
   <si>
     <t>10598893</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of element located by By.id: lblServiceID (tried for 30 second(s) with 500 milliseconds interval)</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1979,7 @@
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>390</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5209" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5632" uniqueCount="445">
   <si>
     <t>Service</t>
   </si>
@@ -1502,6 +1502,294 @@
   </si>
   <si>
     <t>Expected condition failed: waiting for visibility of element located by By.id: lblServiceID (tried for 30 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>10681032</t>
+  </si>
+  <si>
+    <t>10681057</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=123.0.6312.88)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.9', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 123.0.6312.88, chrome: {chromedriverVersion: 123.0.6312.86 (9b72c47a0536..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60428}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: dc5d2f0504cc8b055b8db6ee500d42d4
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10681065</t>
+  </si>
+  <si>
+    <t>10681068</t>
+  </si>
+  <si>
+    <t>141424936</t>
+  </si>
+  <si>
+    <t>10733975</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome=124.0.6367.158)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.14', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.201 (46cf136d27d..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64089}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6c027285ce709cc9a8b051dc71cffc1a
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.14', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.201 (46cf136d27d..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64089}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6c027285ce709cc9a8b051dc71cffc1a</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.14', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.201 (46cf136d27d..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64089}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6c027285ce709cc9a8b051dc71cffc1a</t>
+  </si>
+  <si>
+    <t>10734018</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome=124.0.6367.158)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.14', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.201 (46cf136d27d..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65429}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1f963a8d683a541b207e20cca0ac71df
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10734029</t>
+  </si>
+  <si>
+    <t>10734031</t>
+  </si>
+  <si>
+    <t>10734068</t>
+  </si>
+  <si>
+    <t>10734079</t>
+  </si>
+  <si>
+    <t>10734091</t>
+  </si>
+  <si>
+    <t>10734108</t>
+  </si>
+  <si>
+    <t>10734118</t>
+  </si>
+  <si>
+    <t>142007952</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of [[ChromeDriver: chrome on WINDOWS (6674c5b5aa847c8f67ad57fece34129c)] -&gt; id: GreyTick] (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.14', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.201 (46cf136d27d..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49446}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6674c5b5aa847c8f67ad57fece34129c</t>
+  </si>
+  <si>
+    <t>10735642</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=124.0.6367.158)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.8', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.201 (46cf136d27d..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55330}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: cac1c44ba6eae66ef0c70cd40bae5c87
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10735653</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=124.0.6367.158)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.8', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.201 (46cf136d27d..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55751}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f90c0de0642562b5df3440ca62b86574
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10735670</t>
+  </si>
+  <si>
+    <t>10735697</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.className: panel-body (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.8', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.201 (46cf136d27d..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56000}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1dc78a5d6f08ab5b048bd825e87c5cb5</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome=124.0.6367.158)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.8', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.201 (46cf136d27d..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56000}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1dc78a5d6f08ab5b048bd825e87c5cb5
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10735794</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=124.0.6367.158)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.8', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59536}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 60337bbc0634c7b36e2852aae233c4b1
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10735939</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=124.0.6367.158)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.8', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56163}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f0e54ed27abf19b0adefae44941b9f13
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10735958</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=124.0.6367.158)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.8', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56731}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 90ffc795877614eb4e15d8970420db6a
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10735977</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=124.0.6367.158)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.21', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54002}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2a81ac42a00ebc71a233ffc525b5a81c
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10736196</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=124.0.6367.158)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.21', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57707}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4b64f7a96aa923825f1c934019fd33ef
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10736328</t>
+  </si>
+  <si>
+    <t>10736386</t>
+  </si>
+  <si>
+    <t>10737428</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome=124.0.6367.158)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49723}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7196eebf227b25c9aa98a113859bc596
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>10737510</t>
+  </si>
+  <si>
+    <t>10737514</t>
+  </si>
+  <si>
+    <t>10737523</t>
+  </si>
+  <si>
+    <t>10737551</t>
+  </si>
+  <si>
+    <t>10737568</t>
+  </si>
+  <si>
+    <t>10737579</t>
+  </si>
+  <si>
+    <t>10737592</t>
+  </si>
+  <si>
+    <t>10737605</t>
+  </si>
+  <si>
+    <t>142049019</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of [[ChromeDriver: chrome on WINDOWS (27b24f416550d1afef5f0b758a15a28f)] -&gt; id: GreyTick] (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50254}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 27b24f416550d1afef5f0b758a15a28f</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of all elements located by By.xpath: //*[@class="OpenCloseClass dropdown open"]//ul (tried for 60 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.10', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54212}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9e124d070523c83c50bc6af0113b0bdc</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +2224,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -1954,7 +2242,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -1972,14 +2260,14 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>390</v>
+        <v>86</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1990,14 +2278,14 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2098,14 +2386,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2116,14 +2404,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2134,14 +2422,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2152,14 +2440,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2228,7 +2516,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
         <v>65</v>
@@ -2334,14 +2622,14 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>444</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2377,7 +2665,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>443</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_STG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5632" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5642" uniqueCount="446">
   <si>
     <t>Service</t>
   </si>
@@ -1790,6 +1790,9 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 124.0.6367.158, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54212}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
 Session ID: 9e124d070523c83c50bc6af0113b0bdc</t>
+  </si>
+  <si>
+    <t>142284461</t>
   </si>
 </sst>
 </file>
@@ -2622,11 +2625,11 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
         <v>444</v>
